--- a/biology/Zoologie/Azuré_de_la_vesce/Azuré_de_la_vesce.xlsx
+++ b/biology/Zoologie/Azuré_de_la_vesce/Azuré_de_la_vesce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
+          <t>Azuré_de_la_vesce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neolysandra coelestina
 L’Azuré de la vesce (Neolysandra coelestina) est une espèce de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
+          <t>Azuré_de_la_vesce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L’espèce Neolysandra coelestina a été décrite par le naturaliste allemand Eduard Friedrich von Eversmann en 1843, sous le nom initial de Lycaena coelestina[1]. Elle est parfois citée sous les noms de Polyommatus coelestinus ou Agrodiaetus coelestina[2].
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce Neolysandra coelestina a été décrite par le naturaliste allemand Eduard Friedrich von Eversmann en 1843, sous le nom initial de Lycaena coelestina. Elle est parfois citée sous les noms de Polyommatus coelestinus ou Agrodiaetus coelestina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Neolysandra coelestina coelestina (Eversmann, 1843) — Grèce, Sud-Ouest de la Sibérie.
 Neolysandra coelestina alticola (Christoph, 1886) — Arménie, Caucase, Asie Mineure, Kurdistan.
 Neolysandra coelestina iranica (Pfeiffer, 1938) — Nord de l'Iran.
@@ -524,44 +573,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : l'Azuré de la vesce[3].
-En anglais : Pontic Blue[4].</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
+          <t>Azuré_de_la_vesce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +594,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En français : l'Azuré de la vesce.
+En anglais : Pontic Blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de l'Azuré de la vesce est un petit papillon qui présente un dimorphisme sexuel : le dessus du mâle est d'un bleu intense bordé de brun, tandis que celui de la femelle est brun avec une courte série de taches submarginales orange aux ailes postérieures.
 Le revers est gris ou ocre clair, plus ou moins suffusé de bleu à l'aile postérieure, orné d'une série de points noirs postdiscaux cerclés de blanc et, chez la femelle, d'une série de lunules submarginales orange aux ailes postérieures.
@@ -589,47 +642,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phénologie
-Il vole en une génération, de fin mai à mi-juin[3].
-Plantes-hôtes
-Sa plante-hôte en Europe est une vesce : Vicia cracca stenophylla[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
+          <t>Azuré_de_la_vesce</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,13 +663,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente en Grèce, en Turquie, en Asie Mineure, au Kurdistan, en Arménie, dans le Caucase, dans le Sud-Ouest de la Sibérie et dans le Sud de l'Oural[2],[3].
-Son habitat est constitué de clairières à basse altitude et de lieux abrités à haute altitude, sur sol calcaire[3].
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, de fin mai à mi-juin.
 </t>
         </is>
       </c>
@@ -661,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_vesce</t>
+          <t>Azuré_de_la_vesce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,10 +700,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante-hôte en Europe est une vesce : Vicia cracca stenophylla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Grèce, en Turquie, en Asie Mineure, au Kurdistan, en Arménie, dans le Caucase, dans le Sud-Ouest de la Sibérie et dans le Sud de l'Oural,.
+Son habitat est constitué de clairières à basse altitude et de lieux abrités à haute altitude, sur sol calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_vesce</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier[réf. souhaitée].
 </t>
